--- a/results/Office.TexturedItems.Translation.xlsx
+++ b/results/Office.TexturedItems.Translation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="28620" windowHeight="12915"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="28620" windowHeight="12915" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
   <si>
     <t>Apartment.Texture.rotate</t>
   </si>
@@ -68,6 +68,21 @@
   <si>
     <t>PCA</t>
   </si>
+  <si>
+    <t>avg</t>
+  </si>
+  <si>
+    <t>avg1000</t>
+  </si>
+  <si>
+    <t>min-er</t>
+  </si>
+  <si>
+    <t>FM-2D</t>
+  </si>
+  <si>
+    <t>percent</t>
+  </si>
 </sst>
 </file>
 
@@ -90,7 +105,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -98,13 +113,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -499,11 +525,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="539830888"/>
-        <c:axId val="539833240"/>
+        <c:axId val="227171104"/>
+        <c:axId val="227171496"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="539830888"/>
+        <c:axId val="227171104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -541,7 +567,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="539833240"/>
+        <c:crossAx val="227171496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -549,7 +575,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="539833240"/>
+        <c:axId val="227171496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2"/>
@@ -595,7 +621,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="539830888"/>
+        <c:crossAx val="227171104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1494,11 +1520,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="543813744"/>
-        <c:axId val="543816488"/>
+        <c:axId val="227172672"/>
+        <c:axId val="227174632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="543813744"/>
+        <c:axId val="227172672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1507,7 +1533,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="543816488"/>
+        <c:crossAx val="227174632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1515,7 +1541,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="543816488"/>
+        <c:axId val="227174632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="30"/>
@@ -1528,7 +1554,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="543813744"/>
+        <c:crossAx val="227172672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1927,11 +1953,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="543811784"/>
-        <c:axId val="543811000"/>
+        <c:axId val="228674352"/>
+        <c:axId val="228672000"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="543811784"/>
+        <c:axId val="228674352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1969,7 +1995,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="543811000"/>
+        <c:crossAx val="228672000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1977,7 +2003,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="543811000"/>
+        <c:axId val="228672000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2023,7 +2049,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="543811784"/>
+        <c:crossAx val="228674352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2078,7 +2104,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="75" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -2118,15 +2144,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>204786</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>71436</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>228599</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2146,7 +2172,7 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:absoluteAnchor>
-    <xdr:pos x="6334125" y="4781549"/>
+    <xdr:pos x="6257925" y="314324"/>
     <xdr:ext cx="6191249" cy="4219575"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2457,10 +2483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:U48"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="J48" sqref="J48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2892,7 +2918,7 @@
         <v>2.2253599999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2922,7 +2948,7 @@
         <v>1.90889</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2952,7 +2978,7 @@
         <v>4.5590999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2982,7 +3008,7 @@
         <v>5.0030999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -3012,7 +3038,7 @@
         <v>2.1486000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -3042,7 +3068,7 @@
         <v>3.7620499999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -3072,7 +3098,7 @@
         <v>5.4878499999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -3102,7 +3128,7 @@
         <v>5.3286499999999997</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -3132,7 +3158,7 @@
         <v>6.3158700000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -3162,7 +3188,7 @@
         <v>11574.9</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -3192,7 +3218,7 @@
         <v>3.0983100000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -3222,7 +3248,7 @@
         <v>9.7484999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -3252,7 +3278,7 @@
         <v>5.3068</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -3283,630 +3309,1174 @@
       <c r="J30" t="s">
         <v>10</v>
       </c>
+      <c r="L30" t="s">
+        <v>17</v>
+      </c>
+      <c r="M30" t="s">
+        <v>18</v>
+      </c>
+      <c r="N30" t="s">
+        <v>12</v>
+      </c>
+      <c r="O30" t="s">
+        <v>13</v>
+      </c>
+      <c r="P30" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1</v>
       </c>
       <c r="B31">
-        <f>B10</f>
+        <f t="shared" ref="B31:B45" si="1">B10</f>
         <v>3.85941</v>
       </c>
       <c r="C31">
-        <f>C10/$B31</f>
+        <f t="shared" ref="C31:I36" si="2">C10/$B31</f>
         <v>0.46169492228086678</v>
       </c>
       <c r="D31">
-        <f>D10/$B31</f>
+        <f t="shared" si="2"/>
         <v>0.81828569651837979</v>
       </c>
       <c r="E31">
-        <f>E10/$B31</f>
+        <f t="shared" si="2"/>
         <v>0.51249284217017621</v>
       </c>
       <c r="F31">
-        <f>F10/$B31</f>
+        <f t="shared" si="2"/>
         <v>0.90590271570006808</v>
       </c>
       <c r="G31">
-        <f>G10/$B31</f>
+        <f t="shared" si="2"/>
         <v>0.47853687480728918</v>
       </c>
       <c r="H31">
-        <f>H10/$B31</f>
+        <f t="shared" si="2"/>
         <v>0.54678823965321122</v>
       </c>
       <c r="I31">
-        <f>I10/$B31</f>
+        <f t="shared" si="2"/>
         <v>0.47013144496179465</v>
       </c>
       <c r="J31">
-        <f t="shared" ref="J31:J45" si="1">MIN(G31:I31)</f>
+        <f t="shared" ref="J31:J45" si="3">MIN(G31:I31)</f>
         <v>0.47013144496179465</v>
       </c>
+      <c r="L31">
+        <f>MIN(C31:J31)</f>
+        <v>0.46169492228086678</v>
+      </c>
+      <c r="M31">
+        <f>IF($L31=C31,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <f t="shared" ref="N31:Q45" si="4">IF($L31=D31,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <f>IF($L31=J31,1,0)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32">
         <f>A31+1</f>
         <v>2</v>
       </c>
       <c r="B32">
-        <f>B11</f>
+        <f t="shared" si="1"/>
         <v>2.2105600000000001</v>
       </c>
       <c r="C32">
-        <f>C11/$B32</f>
+        <f t="shared" si="2"/>
         <v>0.97152757672264034</v>
       </c>
       <c r="D32">
-        <f>D11/$B32</f>
+        <f t="shared" si="2"/>
         <v>1.1760187463810075</v>
       </c>
       <c r="E32">
-        <f>E11/$B32</f>
+        <f t="shared" si="2"/>
         <v>0.91280942385639829</v>
       </c>
       <c r="F32">
-        <f>F11/$B32</f>
+        <f t="shared" si="2"/>
         <v>0.99859311667631734</v>
       </c>
       <c r="G32">
-        <f>G11/$B32</f>
+        <f t="shared" si="2"/>
         <v>1.0014566444701793</v>
       </c>
       <c r="H32">
-        <f>H11/$B32</f>
+        <f t="shared" si="2"/>
         <v>1.042296974522293</v>
       </c>
       <c r="I32">
-        <f>I11/$B32</f>
+        <f t="shared" si="2"/>
         <v>0.88424200202663572</v>
       </c>
       <c r="J32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.88424200202663572</v>
       </c>
+      <c r="L32">
+        <f t="shared" ref="L32:L45" si="5">MIN(C32:J32)</f>
+        <v>0.88424200202663572</v>
+      </c>
+      <c r="M32">
+        <f t="shared" ref="M32:M45" si="6">IF($L32=C32,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" ref="Q32:Q45" si="7">IF($L32=J32,1,0)</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33">
         <f>A32+1</f>
         <v>3</v>
       </c>
       <c r="B33">
-        <f>B12</f>
+        <f t="shared" si="1"/>
         <v>5.8767699999999996</v>
       </c>
       <c r="C33">
-        <f>C12/$B33</f>
+        <f t="shared" si="2"/>
         <v>0.43180012149531122</v>
       </c>
       <c r="D33">
-        <f>D12/$B33</f>
+        <f t="shared" si="2"/>
         <v>0.60131330645916048</v>
       </c>
       <c r="E33">
-        <f>E12/$B33</f>
+        <f t="shared" si="2"/>
         <v>0.47795132360122994</v>
       </c>
       <c r="F33">
-        <f>F12/$B33</f>
+        <f t="shared" si="2"/>
         <v>1.1699096612595015</v>
       </c>
       <c r="G33">
-        <f>G12/$B33</f>
+        <f t="shared" si="2"/>
         <v>0.49059091984202213</v>
       </c>
       <c r="H33">
-        <f>H12/$B33</f>
+        <f t="shared" si="2"/>
         <v>0.4851678728281012</v>
       </c>
       <c r="I33">
-        <f>I12/$B33</f>
+        <f t="shared" si="2"/>
         <v>0.41410672869620557</v>
       </c>
       <c r="J33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.41410672869620557</v>
       </c>
+      <c r="L33">
+        <f t="shared" si="5"/>
+        <v>0.41410672869620557</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34">
         <f>A33+1</f>
         <v>4</v>
       </c>
       <c r="B34">
-        <f>B13</f>
+        <f t="shared" si="1"/>
         <v>2.09036</v>
       </c>
       <c r="C34">
-        <f>C13/$B34</f>
+        <f t="shared" si="2"/>
         <v>0.96486729558544937</v>
       </c>
       <c r="D34">
-        <f>D13/$B34</f>
+        <f t="shared" si="2"/>
         <v>0.96800551101245724</v>
       </c>
       <c r="E34">
-        <f>E13/$B34</f>
+        <f t="shared" si="2"/>
         <v>0.94372739623796864</v>
       </c>
       <c r="F34">
-        <f>F13/$B34</f>
+        <f t="shared" si="2"/>
         <v>0.98152949731146799</v>
       </c>
       <c r="G34">
-        <f>G13/$B34</f>
+        <f t="shared" si="2"/>
         <v>0.99503913201553795</v>
       </c>
       <c r="H34">
-        <f>H13/$B34</f>
+        <f t="shared" si="2"/>
         <v>1.1357326010830668</v>
       </c>
       <c r="I34">
-        <f>I13/$B34</f>
+        <f t="shared" si="2"/>
         <v>0.92106144396180556</v>
       </c>
       <c r="J34">
+        <f t="shared" si="3"/>
+        <v>0.92106144396180556</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="5"/>
+        <v>0.92106144396180556</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f t="shared" ref="A35:A45" si="8">A34+1</f>
+        <v>5</v>
+      </c>
+      <c r="B35">
         <f t="shared" si="1"/>
-        <v>0.92106144396180556</v>
+        <v>4.2254300000000002</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="2"/>
+        <v>0.47409612749471652</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="2"/>
+        <v>1.4283516707175363</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="2"/>
+        <v>0.47633968613845212</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="2"/>
+        <v>1.0106592701807864</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="2"/>
+        <v>0.46689212695512644</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="2"/>
+        <v>0.47982335525615144</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="2"/>
+        <v>0.48326915840518003</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="3"/>
+        <v>0.46689212695512644</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="5"/>
+        <v>0.46689212695512644</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <f t="shared" ref="A35:A45" si="2">A34+1</f>
-        <v>5</v>
-      </c>
-      <c r="B35">
-        <f>B14</f>
-        <v>4.2254300000000002</v>
-      </c>
-      <c r="C35">
-        <f>C14/$B35</f>
-        <v>0.47409612749471652</v>
-      </c>
-      <c r="D35">
-        <f>D14/$B35</f>
-        <v>1.4283516707175363</v>
-      </c>
-      <c r="E35">
-        <f>E14/$B35</f>
-        <v>0.47633968613845212</v>
-      </c>
-      <c r="F35">
-        <f>F14/$B35</f>
-        <v>1.0106592701807864</v>
-      </c>
-      <c r="G35">
-        <f>G14/$B35</f>
-        <v>0.46689212695512644</v>
-      </c>
-      <c r="H35">
-        <f>H14/$B35</f>
-        <v>0.47982335525615144</v>
-      </c>
-      <c r="I35">
-        <f>I14/$B35</f>
-        <v>0.48326915840518003</v>
-      </c>
-      <c r="J35">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="B36">
         <f t="shared" si="1"/>
-        <v>0.46689212695512644</v>
+        <v>5.7521399999999998</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="2"/>
+        <v>0.68927216653280343</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="2"/>
+        <v>11.258470760447416</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="2"/>
+        <v>0.52112778896202105</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="2"/>
+        <v>1.1269405821137872</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="2"/>
+        <v>0.5247438344685631</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="2"/>
+        <v>0.70853977823905534</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="2"/>
+        <v>0.52549833627137033</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="3"/>
+        <v>0.5247438344685631</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="5"/>
+        <v>0.52112778896202105</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="B36">
-        <f>B15</f>
-        <v>5.7521399999999998</v>
-      </c>
-      <c r="C36">
-        <f>C15/$B36</f>
-        <v>0.68927216653280343</v>
-      </c>
-      <c r="D36">
-        <f>D15/$B36</f>
-        <v>11.258470760447416</v>
-      </c>
-      <c r="E36">
-        <f>E15/$B36</f>
-        <v>0.52112778896202105</v>
-      </c>
-      <c r="F36">
-        <f>F15/$B36</f>
-        <v>1.1269405821137872</v>
-      </c>
-      <c r="G36">
-        <f>G15/$B36</f>
-        <v>0.5247438344685631</v>
-      </c>
-      <c r="H36">
-        <f>H15/$B36</f>
-        <v>0.70853977823905534</v>
-      </c>
-      <c r="I36">
-        <f>I15/$B36</f>
-        <v>0.52549833627137033</v>
-      </c>
-      <c r="J36">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="B37">
         <f t="shared" si="1"/>
-        <v>0.5247438344685631</v>
+        <v>3.2370000000000001</v>
+      </c>
+      <c r="C37">
+        <f t="shared" ref="C37:C45" si="9">C16/$B37</f>
+        <v>0.73583565029348152</v>
+      </c>
+      <c r="E37">
+        <f t="shared" ref="E37:I45" si="10">E16/$B37</f>
+        <v>0.68220265678096992</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="10"/>
+        <v>0.97095149830089589</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="10"/>
+        <v>0.77759036144578308</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="10"/>
+        <v>0.76977139326536914</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="10"/>
+        <v>0.68747605807846768</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="3"/>
+        <v>0.68747605807846768</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="5"/>
+        <v>0.68220265678096992</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="B37">
-        <f>B16</f>
-        <v>3.2370000000000001</v>
-      </c>
-      <c r="C37">
-        <f>C16/$B37</f>
-        <v>0.73583565029348152</v>
-      </c>
-      <c r="E37">
-        <f>E16/$B37</f>
-        <v>0.68220265678096992</v>
-      </c>
-      <c r="F37">
-        <f>F16/$B37</f>
-        <v>0.97095149830089589</v>
-      </c>
-      <c r="G37">
-        <f>G16/$B37</f>
-        <v>0.77759036144578308</v>
-      </c>
-      <c r="H37">
-        <f>H16/$B37</f>
-        <v>0.76977139326536914</v>
-      </c>
-      <c r="I37">
-        <f>I16/$B37</f>
-        <v>0.68747605807846768</v>
-      </c>
-      <c r="J37">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="B38">
         <f t="shared" si="1"/>
-        <v>0.68747605807846768</v>
+        <v>4.5784700000000003</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="9"/>
+        <v>0.43339368828451424</v>
+      </c>
+      <c r="D38">
+        <f t="shared" ref="D38:D45" si="11">D17/$B38</f>
+        <v>0.47184321399943646</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="10"/>
+        <v>0.40510913034266904</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="10"/>
+        <v>0.98986997839889745</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="10"/>
+        <v>0.46838791124545964</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="10"/>
+        <v>0.50028502971516686</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="10"/>
+        <v>0.4169274888772887</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="3"/>
+        <v>0.4169274888772887</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="5"/>
+        <v>0.40510913034266904</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="B38">
-        <f>B17</f>
-        <v>4.5784700000000003</v>
-      </c>
-      <c r="C38">
-        <f>C17/$B38</f>
-        <v>0.43339368828451424</v>
-      </c>
-      <c r="D38">
-        <f>D17/$B38</f>
-        <v>0.47184321399943646</v>
-      </c>
-      <c r="E38">
-        <f>E17/$B38</f>
-        <v>0.40510913034266904</v>
-      </c>
-      <c r="F38">
-        <f>F17/$B38</f>
-        <v>0.98986997839889745</v>
-      </c>
-      <c r="G38">
-        <f>G17/$B38</f>
-        <v>0.46838791124545964</v>
-      </c>
-      <c r="H38">
-        <f>H17/$B38</f>
-        <v>0.50028502971516686</v>
-      </c>
-      <c r="I38">
-        <f>I17/$B38</f>
-        <v>0.4169274888772887</v>
-      </c>
-      <c r="J38">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="B39">
         <f t="shared" si="1"/>
-        <v>0.4169274888772887</v>
+        <v>4.4212899999999999</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="9"/>
+        <v>1.182639003548738</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="11"/>
+        <v>2139.7555916938268</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="10"/>
+        <v>1.0143442298514687</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="10"/>
+        <v>0.9921199468933275</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="10"/>
+        <v>1.0831363697020553</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="10"/>
+        <v>1.1406919699906588</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="10"/>
+        <v>1.0311696360112095</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="3"/>
+        <v>1.0311696360112095</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="5"/>
+        <v>0.9921199468933275</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="B39">
-        <f>B18</f>
-        <v>4.4212899999999999</v>
-      </c>
-      <c r="C39">
-        <f>C18/$B39</f>
-        <v>1.182639003548738</v>
-      </c>
-      <c r="D39">
-        <f>D18/$B39</f>
-        <v>2139.7555916938268</v>
-      </c>
-      <c r="E39">
-        <f>E18/$B39</f>
-        <v>1.0143442298514687</v>
-      </c>
-      <c r="F39">
-        <f>F18/$B39</f>
-        <v>0.9921199468933275</v>
-      </c>
-      <c r="G39">
-        <f>G18/$B39</f>
-        <v>1.0831363697020553</v>
-      </c>
-      <c r="H39">
-        <f>H18/$B39</f>
-        <v>1.1406919699906588</v>
-      </c>
-      <c r="I39">
-        <f>I18/$B39</f>
-        <v>1.0311696360112095</v>
-      </c>
-      <c r="J39">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="B40">
         <f t="shared" si="1"/>
-        <v>1.0311696360112095</v>
+        <v>8.2530000000000001</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="9"/>
+        <v>0.57182842602689921</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="11"/>
+        <v>1520.8893735611293</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="10"/>
+        <v>0.7120126014782503</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="10"/>
+        <v>0.98966436447352479</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="10"/>
+        <v>0.57699745547073789</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="10"/>
+        <v>0.67024354780079975</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="10"/>
+        <v>0.606215921483097</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="3"/>
+        <v>0.57699745547073789</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="5"/>
+        <v>0.57182842602689921</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="B40">
-        <f>B19</f>
-        <v>8.2530000000000001</v>
-      </c>
-      <c r="C40">
-        <f>C19/$B40</f>
-        <v>0.57182842602689921</v>
-      </c>
-      <c r="D40">
-        <f>D19/$B40</f>
-        <v>1520.8893735611293</v>
-      </c>
-      <c r="E40">
-        <f>E19/$B40</f>
-        <v>0.7120126014782503</v>
-      </c>
-      <c r="F40">
-        <f>F19/$B40</f>
-        <v>0.98966436447352479</v>
-      </c>
-      <c r="G40">
-        <f>G19/$B40</f>
-        <v>0.57699745547073789</v>
-      </c>
-      <c r="H40">
-        <f>H19/$B40</f>
-        <v>0.67024354780079975</v>
-      </c>
-      <c r="I40">
-        <f>I19/$B40</f>
-        <v>0.606215921483097</v>
-      </c>
-      <c r="J40">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="B41">
         <f t="shared" si="1"/>
-        <v>0.57699745547073789</v>
+        <v>2.3632</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="9"/>
+        <v>0.91935511171293172</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="11"/>
+        <v>1.0824898442789437</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="10"/>
+        <v>0.89713100880162489</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="10"/>
+        <v>1.0212931618144889</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="10"/>
+        <v>1.0278689911983752</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="10"/>
+        <v>1.0937542315504403</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="10"/>
+        <v>0.90919092755585651</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="3"/>
+        <v>0.90919092755585651</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="5"/>
+        <v>0.89713100880162489</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="B41">
-        <f>B20</f>
-        <v>2.3632</v>
-      </c>
-      <c r="C41">
-        <f>C20/$B41</f>
-        <v>0.91935511171293172</v>
-      </c>
-      <c r="D41">
-        <f>D20/$B41</f>
-        <v>1.0824898442789437</v>
-      </c>
-      <c r="E41">
-        <f>E20/$B41</f>
-        <v>0.89713100880162489</v>
-      </c>
-      <c r="F41">
-        <f>F20/$B41</f>
-        <v>1.0212931618144889</v>
-      </c>
-      <c r="G41">
-        <f>G20/$B41</f>
-        <v>1.0278689911983752</v>
-      </c>
-      <c r="H41">
-        <f>H20/$B41</f>
-        <v>1.0937542315504403</v>
-      </c>
-      <c r="I41">
-        <f>I20/$B41</f>
-        <v>0.90919092755585651</v>
-      </c>
-      <c r="J41">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="B42">
         <f t="shared" si="1"/>
-        <v>0.90919092755585651</v>
+        <v>9.2858699999999992</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="9"/>
+        <v>0.47953288167936886</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="11"/>
+        <v>0.51623380469465985</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="10"/>
+        <v>0.49169221623822001</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="10"/>
+        <v>0.90830692223776555</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="10"/>
+        <v>0.45933768187579627</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="10"/>
+        <v>0.49723181565109142</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="10"/>
+        <v>0.40513705231712271</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="3"/>
+        <v>0.40513705231712271</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="5"/>
+        <v>0.40513705231712271</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="B42">
-        <f>B21</f>
-        <v>9.2858699999999992</v>
-      </c>
-      <c r="C42">
-        <f>C21/$B42</f>
-        <v>0.47953288167936886</v>
-      </c>
-      <c r="D42">
-        <f>D21/$B42</f>
-        <v>0.51623380469465985</v>
-      </c>
-      <c r="E42">
-        <f>E21/$B42</f>
-        <v>0.49169221623822001</v>
-      </c>
-      <c r="F42">
-        <f>F21/$B42</f>
-        <v>0.90830692223776555</v>
-      </c>
-      <c r="G42">
-        <f>G21/$B42</f>
-        <v>0.45933768187579627</v>
-      </c>
-      <c r="H42">
-        <f>H21/$B42</f>
-        <v>0.49723181565109142</v>
-      </c>
-      <c r="I42">
-        <f>I21/$B42</f>
-        <v>0.40513705231712271</v>
-      </c>
-      <c r="J42">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <f t="shared" si="8"/>
+        <v>13</v>
+      </c>
+      <c r="B43">
         <f t="shared" si="1"/>
-        <v>0.40513705231712271</v>
+        <v>6.3990099999999996</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="9"/>
+        <v>0.87703566645465481</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="11"/>
+        <v>1.4648640961648756</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="10"/>
+        <v>0.80405093912964665</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="10"/>
+        <v>0.90379918143587834</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="10"/>
+        <v>0.87288814988568542</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="10"/>
+        <v>0.87631367977233987</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="10"/>
+        <v>0.85760922392682626</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="3"/>
+        <v>0.85760922392682626</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="5"/>
+        <v>0.80405093912964665</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="B43">
-        <f>B22</f>
-        <v>6.3990099999999996</v>
-      </c>
-      <c r="C43">
-        <f>C22/$B43</f>
-        <v>0.87703566645465481</v>
-      </c>
-      <c r="D43">
-        <f>D22/$B43</f>
-        <v>1.4648640961648756</v>
-      </c>
-      <c r="E43">
-        <f>E22/$B43</f>
-        <v>0.80405093912964665</v>
-      </c>
-      <c r="F43">
-        <f>F22/$B43</f>
-        <v>0.90379918143587834</v>
-      </c>
-      <c r="G43">
-        <f>G22/$B43</f>
-        <v>0.87288814988568542</v>
-      </c>
-      <c r="H43">
-        <f>H22/$B43</f>
-        <v>0.87631367977233987</v>
-      </c>
-      <c r="I43">
-        <f>I22/$B43</f>
-        <v>0.85760922392682626</v>
-      </c>
-      <c r="J43">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="B44">
         <f t="shared" si="1"/>
-        <v>0.85760922392682626</v>
+        <v>6.4900200000000003</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="9"/>
+        <v>0.72722888373225347</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="11"/>
+        <v>1454.5455946206637</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="10"/>
+        <v>1.0210970074052159</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="10"/>
+        <v>1.0121340149953313</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="10"/>
+        <v>0.81883260760367449</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="10"/>
+        <v>1.5157010301971334</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="10"/>
+        <v>0.82105293974440752</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="3"/>
+        <v>0.81883260760367449</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="5"/>
+        <v>0.72722888373225347</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="B44">
-        <f>B23</f>
-        <v>6.4900200000000003</v>
-      </c>
-      <c r="C44">
-        <f>C23/$B44</f>
-        <v>0.72722888373225347</v>
-      </c>
-      <c r="D44">
-        <f>D23/$B44</f>
-        <v>1454.5455946206637</v>
-      </c>
-      <c r="E44">
-        <f>E23/$B44</f>
-        <v>1.0210970074052159</v>
-      </c>
-      <c r="F44">
-        <f>F23/$B44</f>
-        <v>1.0121340149953313</v>
-      </c>
-      <c r="G44">
-        <f>G23/$B44</f>
-        <v>0.81883260760367449</v>
-      </c>
-      <c r="H44">
-        <f>H23/$B44</f>
-        <v>1.5157010301971334</v>
-      </c>
-      <c r="I44">
-        <f>I23/$B44</f>
-        <v>0.82105293974440752</v>
-      </c>
-      <c r="J44">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+      <c r="B45">
         <f t="shared" si="1"/>
-        <v>0.81883260760367449</v>
+        <v>8.5680700000000005</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="9"/>
+        <v>0.77442878034376472</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="11"/>
+        <v>3.5840977022830112</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="10"/>
+        <v>0.78307250057480848</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="10"/>
+        <v>1.0397207305729295</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="10"/>
+        <v>1.069218622163451</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="10"/>
+        <v>1.8312058608298016</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="10"/>
+        <v>0.73714033615505004</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="3"/>
+        <v>0.73714033615505004</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="5"/>
+        <v>0.73714033615505004</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <f t="shared" si="2"/>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>15</v>
       </c>
-      <c r="B45">
-        <f>B24</f>
-        <v>8.5680700000000005</v>
-      </c>
-      <c r="C45">
-        <f>C24/$B45</f>
-        <v>0.77442878034376472</v>
-      </c>
-      <c r="D45">
-        <f>D24/$B45</f>
-        <v>3.5840977022830112</v>
-      </c>
-      <c r="E45">
-        <f>E24/$B45</f>
-        <v>0.78307250057480848</v>
-      </c>
-      <c r="F45">
-        <f>F24/$B45</f>
-        <v>1.0397207305729295</v>
-      </c>
-      <c r="G45">
-        <f>G24/$B45</f>
-        <v>1.069218622163451</v>
-      </c>
-      <c r="H45">
-        <f>H24/$B45</f>
-        <v>1.8312058608298016</v>
-      </c>
-      <c r="I45">
-        <f>I24/$B45</f>
-        <v>0.73714033615505004</v>
-      </c>
-      <c r="J45">
-        <f t="shared" si="1"/>
-        <v>0.73714033615505004</v>
+      <c r="B46">
+        <f>AVERAGE(B31:B45)</f>
+        <v>5.1740399999999998</v>
+      </c>
+      <c r="C46">
+        <f t="shared" ref="C46:J46" si="12">AVERAGE(C31:C45)</f>
+        <v>0.71296908681255966</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="12"/>
+        <v>367.04003815918406</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="12"/>
+        <v>0.71034405010460799</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="12"/>
+        <v>1.0014263094909979</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="12"/>
+        <v>0.74076784554331576</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="12"/>
+        <v>0.88623649202364518</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="12"/>
+        <v>0.67801524656482115</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="12"/>
+        <v>0.67477722447109101</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M46" s="2">
+        <f>AVERAGE(M31:M45)*100</f>
+        <v>20</v>
+      </c>
+      <c r="N46" s="2">
+        <f t="shared" ref="N46:Q46" si="13">AVERAGE(N31:N45)*100</f>
+        <v>0</v>
+      </c>
+      <c r="O46" s="2">
+        <f t="shared" si="13"/>
+        <v>33.333333333333329</v>
+      </c>
+      <c r="P46" s="2">
+        <f t="shared" si="13"/>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="Q46" s="2">
+        <f t="shared" si="13"/>
+        <v>40</v>
+      </c>
+      <c r="R46" s="2">
+        <f>SUM(M46:Q46)</f>
+        <v>100</v>
+      </c>
+      <c r="S46" s="2"/>
+      <c r="T46" s="2"/>
+      <c r="U46" s="2"/>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>16</v>
+      </c>
+      <c r="B47">
+        <f>B46*1000</f>
+        <v>5174.04</v>
+      </c>
+      <c r="C47">
+        <f t="shared" ref="C47:J47" si="14">C46*1000</f>
+        <v>712.96908681255968</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="14"/>
+        <v>367040.03815918404</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="14"/>
+        <v>710.34405010460796</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="14"/>
+        <v>1001.4263094909978</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="14"/>
+        <v>740.76784554331573</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="14"/>
+        <v>886.23649202364516</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="14"/>
+        <v>678.01524656482115</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="14"/>
+        <v>674.77722447109102</v>
+      </c>
+      <c r="M47" s="3">
+        <f>ROUND(M46,2)</f>
+        <v>20</v>
+      </c>
+      <c r="N47" s="3">
+        <f t="shared" ref="N47:Q47" si="15">ROUND(N46,2)</f>
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
+        <f t="shared" si="15"/>
+        <v>33.33</v>
+      </c>
+      <c r="P47" s="3">
+        <f t="shared" si="15"/>
+        <v>6.67</v>
+      </c>
+      <c r="Q47" s="3">
+        <f t="shared" si="15"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <f>ROUND(C47,2)</f>
+        <v>712.97</v>
+      </c>
+      <c r="D48">
+        <f t="shared" ref="D48:J48" si="16">ROUND(D47,2)</f>
+        <v>367040.04</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="16"/>
+        <v>710.34</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="16"/>
+        <v>1001.43</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="16"/>
+        <v>740.77</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="16"/>
+        <v>886.24</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="16"/>
+        <v>678.02</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="16"/>
+        <v>674.78</v>
       </c>
     </row>
   </sheetData>
